--- a/SCIPY_DEF.xlsx
+++ b/SCIPY_DEF.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joris\Desktop\instruments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joris\Desktop\instruments - Copy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5A5F405-0E26-4E42-A8DF-98D0AA04FDFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EED70C87-35F9-41D5-8895-3D0A34674A01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38415" yWindow="375" windowWidth="14295" windowHeight="15105" activeTab="2" xr2:uid="{066D982B-2C70-4E7B-A85F-78773C56BBDF}"/>
+    <workbookView xWindow="7245" yWindow="345" windowWidth="14295" windowHeight="15105" activeTab="2" xr2:uid="{066D982B-2C70-4E7B-A85F-78773C56BBDF}"/>
   </bookViews>
   <sheets>
     <sheet name="XDM2041" sheetId="1" r:id="rId1"/>
-    <sheet name="KORAD KA3005P" sheetId="2" r:id="rId2"/>
-    <sheet name="KORAD KA3005PS" sheetId="3" r:id="rId3"/>
+    <sheet name="KA3005PS" sheetId="3" r:id="rId2"/>
+    <sheet name="KA3005P" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="74">
   <si>
     <t>Name</t>
   </si>
@@ -176,9 +176,6 @@
     <t>KORAD KA3005PS V1.0 SN:03820940</t>
   </si>
   <si>
-    <t>KORAD KA3005P V5.5 SN:17799972</t>
-  </si>
-  <si>
     <t>STATUS?</t>
   </si>
   <si>
@@ -249,6 +246,21 @@
   </si>
   <si>
     <t>IOUT1?</t>
+  </si>
+  <si>
+    <t>Return type</t>
+  </si>
+  <si>
+    <t>str</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>KORAD KA3005P V1.0 SN:03820940</t>
   </si>
 </sst>
 </file>
@@ -627,7 +639,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -651,6 +663,9 @@
       <c r="D1" s="1" t="s">
         <v>36</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
@@ -832,6 +847,9 @@
       <c r="C15" t="s">
         <v>13</v>
       </c>
+      <c r="E15" t="s">
+        <v>72</v>
+      </c>
       <c r="G15" t="s">
         <v>15</v>
       </c>
@@ -845,6 +863,9 @@
       </c>
       <c r="C16" t="s">
         <v>8</v>
+      </c>
+      <c r="E16" t="s">
+        <v>71</v>
       </c>
       <c r="G16" s="4">
         <v>-96.000169999999997</v>
@@ -871,188 +892,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E4E8252-4BF9-438D-B7F4-AFE765885967}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86E06188-4B52-408C-B8A9-1A5C38237B8D}">
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="28.140625" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" customWidth="1"/>
-    <col min="7" max="7" width="35.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>61</v>
-      </c>
-      <c r="B6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>64</v>
-      </c>
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>65</v>
-      </c>
-      <c r="B9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>66</v>
-      </c>
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" t="s">
-        <v>51</v>
-      </c>
-      <c r="D10" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>67</v>
-      </c>
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" t="s">
-        <v>53</v>
-      </c>
-      <c r="D11" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>68</v>
-      </c>
-      <c r="B12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" t="s">
-        <v>54</v>
-      </c>
-      <c r="D12" t="s">
-        <v>52</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86E06188-4B52-408C-B8A9-1A5C38237B8D}">
-  <dimension ref="A1:G12"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="C32" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1060,6 +904,7 @@
     <col min="1" max="1" width="26.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1076,13 +921,16 @@
       <c r="D1" s="1" t="s">
         <v>36</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -1090,133 +938,350 @@
       <c r="C2" t="s">
         <v>5</v>
       </c>
+      <c r="E2" t="s">
+        <v>70</v>
+      </c>
       <c r="G2" s="2" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>46</v>
+        <v>45</v>
+      </c>
+      <c r="E3" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>46</v>
+      </c>
+      <c r="E4" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
       </c>
       <c r="C5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" t="s">
         <v>49</v>
-      </c>
-      <c r="D5" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B6" t="s">
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>47</v>
+      </c>
+      <c r="E6" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B7" t="s">
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>55</v>
+        <v>54</v>
+      </c>
+      <c r="E7" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
       </c>
       <c r="C8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" t="s">
         <v>56</v>
-      </c>
-      <c r="D8" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B9" t="s">
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>69</v>
+        <v>68</v>
+      </c>
+      <c r="E9" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B10" t="s">
         <v>7</v>
       </c>
       <c r="C10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" t="s">
         <v>51</v>
-      </c>
-      <c r="D10" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B11" t="s">
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAF41233-3A86-449C-BEBE-C4DC5EF3420B}">
+  <dimension ref="A1:G12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="40" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
         <v>68</v>
       </c>
+      <c r="E9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>67</v>
+      </c>
       <c r="B12" t="s">
         <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/SCIPY_DEF.xlsx
+++ b/SCIPY_DEF.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joris\Documents\GitHub\Pyvisa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24EE56B0-CFE7-4FA4-88BC-2B3CF392AAF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98151C43-8170-4086-B3EE-6C09AA344166}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="375" windowWidth="23880" windowHeight="15105" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16215" yWindow="585" windowWidth="23880" windowHeight="15105" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="XDM2041" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="SDG1032X" sheetId="4" r:id="rId4"/>
     <sheet name="Z650-1-U" sheetId="5" r:id="rId5"/>
     <sheet name="SDS1104X-U" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -54,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="346">
   <si>
     <t>Name</t>
   </si>
@@ -866,33 +867,9 @@
     <t>SINGle</t>
   </si>
   <si>
-    <t>Channel ON/OFF</t>
-  </si>
-  <si>
-    <t>CHANnel{CH}:DISPlay {STATE}</t>
-  </si>
-  <si>
-    <t>Channel state</t>
-  </si>
-  <si>
-    <t>CHANnel{CH}:DISPlay?</t>
-  </si>
-  <si>
     <t>CH:1;2;3;4</t>
   </si>
   <si>
-    <t>Set vertical scale</t>
-  </si>
-  <si>
-    <t>CHANnel{CH}:SCALe {VOLT}</t>
-  </si>
-  <si>
-    <t>Read vertical scale</t>
-  </si>
-  <si>
-    <t>CHANnel{CH}:SCALe?</t>
-  </si>
-  <si>
     <t>Set vertical offset</t>
   </si>
   <si>
@@ -1050,6 +1027,72 @@
   </si>
   <si>
     <t>for example: USB0:/screen.png</t>
+  </si>
+  <si>
+    <t>Display trace</t>
+  </si>
+  <si>
+    <t>Set coupling</t>
+  </si>
+  <si>
+    <t>{CH}:TRAce {mode}</t>
+  </si>
+  <si>
+    <t>{CH}:CPL {mode}</t>
+  </si>
+  <si>
+    <t>CH:C1;C2;C3;C4;TA;TB;TC;TD | mode:ON;OFF</t>
+  </si>
+  <si>
+    <t>CH:C1;C2;C3;C4 | mode:A1M;D1M;GND</t>
+  </si>
+  <si>
+    <t>{CH}:VDIV {V_GAIN}</t>
+  </si>
+  <si>
+    <t>TDIV {value}</t>
+  </si>
+  <si>
+    <t>value:1NS;2NS;5NS;10NS;20NS;50NS;100NS;200NS;500NS;1US;2US;5US;10US;20US;50US;100US;200US;500US;1MS;2MS;5MS;10MS;20MS;50MS;100MS;200MS;500MS;1S;2S;5S;10S;20S;50S</t>
+  </si>
+  <si>
+    <t>V/DIV</t>
+  </si>
+  <si>
+    <t>S/DIV</t>
+  </si>
+  <si>
+    <t>Force trigger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRMD SINGLE;ARM;FRTR </t>
+  </si>
+  <si>
+    <t>single</t>
+  </si>
+  <si>
+    <t>ARM</t>
+  </si>
+  <si>
+    <t>Trigger mode</t>
+  </si>
+  <si>
+    <t>state:AUTO;NORM;SINGLE;STOP</t>
+  </si>
+  <si>
+    <t>TRMD {state}</t>
+  </si>
+  <si>
+    <t>trigger mode</t>
+  </si>
+  <si>
+    <t>CH:C1;C2;C3;C4 | V_GAIN</t>
+  </si>
+  <si>
+    <t>TRSE {trig_type},SR,{source}</t>
+  </si>
+  <si>
+    <t>trig_type:EDGE;GLIT;SLEW;INTV | source:C1;C2;C3;C4;LINE;EX;EX5</t>
   </si>
 </sst>
 </file>
@@ -1415,6 +1458,114 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>781050</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1943C270-9EC6-448B-9AD7-B9F1AE4DA6C8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11830050" cy="9201150"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>781050</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95988BE4-A3D7-49BA-9BED-DE404DE3DB36}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11830050" cy="9201150"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1815,7 +1966,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -2209,8 +2362,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G54"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3399,10 +3552,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CC2B197-BBF6-4032-B079-82991FDC08F6}">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:F48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3410,452 +3563,588 @@
     <col min="1" max="1" width="37.42578125" customWidth="1"/>
     <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="35" customWidth="1"/>
-    <col min="4" max="4" width="39.7109375" customWidth="1"/>
+    <col min="4" max="4" width="75" customWidth="1"/>
     <col min="5" max="5" width="46.7109375" customWidth="1"/>
+    <col min="6" max="6" width="37" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="8" t="s">
         <v>222</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="8"/>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5">
       <c r="A3" s="8" t="s">
         <v>76</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>77</v>
       </c>
       <c r="D3" s="8"/>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:5">
       <c r="A4" s="8" t="s">
         <v>263</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="8" t="s">
         <v>256</v>
       </c>
       <c r="D4" s="8"/>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:5">
       <c r="A5" s="8" t="s">
-        <v>264</v>
+        <v>339</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>265</v>
-      </c>
-      <c r="D5" s="8"/>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="C5" t="s">
+        <v>341</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="8" t="s">
-        <v>266</v>
+        <v>337</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>267</v>
+      <c r="C6" s="8" t="s">
+        <v>338</v>
       </c>
       <c r="D6" s="8"/>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:5">
       <c r="A7" s="8" t="s">
-        <v>268</v>
+        <v>335</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>269</v>
+      <c r="C7" s="8" t="s">
+        <v>336</v>
       </c>
       <c r="D7" s="8"/>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:5">
       <c r="A8" s="8" t="s">
-        <v>270</v>
+        <v>342</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="9" t="s">
-        <v>271</v>
+      <c r="C8" s="8" t="s">
+        <v>344</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="8" t="s">
-        <v>272</v>
+        <v>324</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>273</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>11</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="8" t="s">
-        <v>275</v>
+        <v>325</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="9" t="s">
-        <v>276</v>
+      <c r="C10" s="8" t="s">
+        <v>327</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="8" t="s">
-        <v>277</v>
+        <v>333</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>278</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>11</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="60">
       <c r="A12" s="8" t="s">
-        <v>279</v>
+        <v>334</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="9" t="s">
-        <v>280</v>
+      <c r="C12" s="8" t="s">
+        <v>331</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="8" t="s">
-        <v>281</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>282</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="8" t="s">
-        <v>283</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="8" t="s">
-        <v>286</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>287</v>
-      </c>
+        <v>332</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
       <c r="D15" s="8"/>
     </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="8" t="s">
-        <v>288</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>289</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>290</v>
-      </c>
+    <row r="16" spans="1:5">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="8" t="s">
-        <v>291</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>292</v>
-      </c>
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
       <c r="D17" s="8"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="8" t="s">
-        <v>293</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>294</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>274</v>
-      </c>
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="8" t="s">
-        <v>295</v>
+        <v>264</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="9" t="s">
-        <v>296</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>297</v>
-      </c>
+      <c r="C19" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="D19" s="8"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="8" t="s">
-        <v>298</v>
+        <v>266</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="9" t="s">
-        <v>299</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>300</v>
-      </c>
+      <c r="C20" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="D20" s="8"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="8" t="s">
-        <v>301</v>
+        <v>268</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>302</v>
+        <v>11</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>269</v>
       </c>
       <c r="D21" s="8"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="8" t="s">
-        <v>303</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>304</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>305</v>
-      </c>
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="8" t="s">
-        <v>306</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>307</v>
-      </c>
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
       <c r="D23" s="8"/>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="8" t="s">
-        <v>308</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>309</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>274</v>
-      </c>
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>311</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>274</v>
-      </c>
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="8" t="s">
-        <v>312</v>
+        <v>271</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>313</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>274</v>
+        <v>11</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="8" t="s">
-        <v>314</v>
+        <v>273</v>
       </c>
       <c r="B27" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="9" t="s">
-        <v>315</v>
-      </c>
-      <c r="D27" s="9" t="s">
+      <c r="C27" s="8" t="s">
         <v>274</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="8" t="s">
-        <v>316</v>
+        <v>275</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>317</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>274</v>
+        <v>11</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="8" t="s">
-        <v>318</v>
+        <v>278</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>319</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>320</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="D29" s="8"/>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="8" t="s">
-        <v>321</v>
+        <v>280</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>322</v>
-      </c>
-      <c r="D30" s="8"/>
+        <v>11</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>282</v>
+      </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="8" t="s">
-        <v>323</v>
+        <v>283</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>324</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>325</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="D31" s="8"/>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="8" t="s">
-        <v>326</v>
+        <v>285</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>327</v>
-      </c>
-      <c r="D32" s="8"/>
-    </row>
-    <row r="33" spans="1:5">
+        <v>11</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="8" t="s">
-        <v>328</v>
+        <v>287</v>
       </c>
       <c r="B33" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C33" s="9" t="s">
-        <v>329</v>
+      <c r="C33" s="8" t="s">
+        <v>288</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>330</v>
-      </c>
-      <c r="E33" s="8" t="s">
-        <v>331</v>
-      </c>
+        <v>289</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="D35" s="8"/>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="D37" s="8"/>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="D44" s="8"/>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="D46" s="8"/>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="F47" s="8" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="8"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B7811CF-7B67-4481-8807-C8AB2B6C2465}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>